--- a/natmiOut/OldD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Npy1r</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H2">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I2">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J2">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.19216245777942</v>
+        <v>0.141749</v>
       </c>
       <c r="N2">
-        <v>1.19216245777942</v>
+        <v>0.283498</v>
       </c>
       <c r="O2">
-        <v>0.08223076865861807</v>
+        <v>0.008311773795175947</v>
       </c>
       <c r="P2">
-        <v>0.08223076865861807</v>
+        <v>0.007810267403127276</v>
       </c>
       <c r="Q2">
-        <v>2.356169101754516</v>
+        <v>0.376912433737</v>
       </c>
       <c r="R2">
-        <v>2.356169101754516</v>
+        <v>2.261474602422</v>
       </c>
       <c r="S2">
-        <v>0.04797060703097089</v>
+        <v>0.003883375505950873</v>
       </c>
       <c r="T2">
-        <v>0.04797060703097089</v>
+        <v>0.003649064793586452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +599,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.97638256965685</v>
+        <v>2.659013</v>
       </c>
       <c r="H3">
-        <v>1.97638256965685</v>
+        <v>7.977039</v>
       </c>
       <c r="I3">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J3">
-        <v>0.5833656648659261</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.3056037339571</v>
+        <v>0.035039</v>
       </c>
       <c r="N3">
-        <v>13.3056037339571</v>
+        <v>0.105117</v>
       </c>
       <c r="O3">
-        <v>0.917769231341382</v>
+        <v>0.002054591157674269</v>
       </c>
       <c r="P3">
-        <v>0.917769231341382</v>
+        <v>0.002895935345626882</v>
       </c>
       <c r="Q3">
-        <v>26.29696329855391</v>
+        <v>0.093169156507</v>
       </c>
       <c r="R3">
-        <v>26.29696329855391</v>
+        <v>0.838522408563</v>
       </c>
       <c r="S3">
-        <v>0.5353950578349552</v>
+        <v>0.0009599333635723189</v>
       </c>
       <c r="T3">
-        <v>0.5353950578349552</v>
+        <v>0.001353020987475845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,60 +658,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41151405965725</v>
+        <v>2.659013</v>
       </c>
       <c r="H4">
-        <v>1.41151405965725</v>
+        <v>7.977039</v>
       </c>
       <c r="I4">
-        <v>0.4166343351340739</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="J4">
-        <v>0.4166343351340739</v>
+        <v>0.4672138103908383</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.19216245777942</v>
+        <v>0.050715</v>
       </c>
       <c r="N4">
-        <v>1.19216245777942</v>
+        <v>0.152145</v>
       </c>
       <c r="O4">
-        <v>0.08223076865861807</v>
+        <v>0.002973788936940283</v>
       </c>
       <c r="P4">
-        <v>0.08223076865861807</v>
+        <v>0.004191539742956915</v>
       </c>
       <c r="Q4">
-        <v>1.682754070551194</v>
+        <v>0.134851844295</v>
       </c>
       <c r="R4">
-        <v>1.682754070551194</v>
+        <v>1.213666598655</v>
       </c>
       <c r="S4">
-        <v>0.03426016162764718</v>
+        <v>0.00138939526052599</v>
       </c>
       <c r="T4">
-        <v>0.03426016162764718</v>
+        <v>0.001958345254711535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +720,427 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.659013</v>
+      </c>
+      <c r="H5">
+        <v>7.977039</v>
+      </c>
+      <c r="I5">
+        <v>0.4672138103908383</v>
+      </c>
+      <c r="J5">
+        <v>0.4672138103908383</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.104360666666667</v>
+      </c>
+      <c r="N5">
+        <v>6.313082</v>
+      </c>
+      <c r="O5">
+        <v>0.1233939558289581</v>
+      </c>
+      <c r="P5">
+        <v>0.1739231266459359</v>
+      </c>
+      <c r="Q5">
+        <v>5.595522369355333</v>
+      </c>
+      <c r="R5">
+        <v>50.35970132419799</v>
+      </c>
+      <c r="S5">
+        <v>0.05765136028204631</v>
+      </c>
+      <c r="T5">
+        <v>0.08125928671533605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.659013</v>
+      </c>
+      <c r="H6">
+        <v>7.977039</v>
+      </c>
+      <c r="I6">
+        <v>0.4672138103908383</v>
+      </c>
+      <c r="J6">
+        <v>0.4672138103908383</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.7221375</v>
+      </c>
+      <c r="N6">
+        <v>29.444275</v>
+      </c>
+      <c r="O6">
+        <v>0.8632658902812514</v>
+      </c>
+      <c r="P6">
+        <v>0.811179130862353</v>
+      </c>
+      <c r="Q6">
+        <v>39.1463550002875</v>
+      </c>
+      <c r="R6">
+        <v>234.878130001725</v>
+      </c>
+      <c r="S6">
+        <v>0.4033297459787428</v>
+      </c>
+      <c r="T6">
+        <v>0.3789940926397284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.032199333333333</v>
+      </c>
+      <c r="H7">
+        <v>9.096598</v>
+      </c>
+      <c r="I7">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="J7">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.141749</v>
+      </c>
+      <c r="N7">
+        <v>0.283498</v>
+      </c>
+      <c r="O7">
+        <v>0.008311773795175947</v>
+      </c>
+      <c r="P7">
+        <v>0.007810267403127276</v>
+      </c>
+      <c r="Q7">
+        <v>0.4298112233006667</v>
+      </c>
+      <c r="R7">
+        <v>2.578867339804</v>
+      </c>
+      <c r="S7">
+        <v>0.004428398289225075</v>
+      </c>
+      <c r="T7">
+        <v>0.004161202609540825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.41151405965725</v>
-      </c>
-      <c r="H5">
-        <v>1.41151405965725</v>
-      </c>
-      <c r="I5">
-        <v>0.4166343351340739</v>
-      </c>
-      <c r="J5">
-        <v>0.4166343351340739</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.3056037339571</v>
-      </c>
-      <c r="N5">
-        <v>13.3056037339571</v>
-      </c>
-      <c r="O5">
-        <v>0.917769231341382</v>
-      </c>
-      <c r="P5">
-        <v>0.917769231341382</v>
-      </c>
-      <c r="Q5">
-        <v>18.78104674270845</v>
-      </c>
-      <c r="R5">
-        <v>18.78104674270845</v>
-      </c>
-      <c r="S5">
-        <v>0.3823741735064267</v>
-      </c>
-      <c r="T5">
-        <v>0.3823741735064267</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.032199333333333</v>
+      </c>
+      <c r="H8">
+        <v>9.096598</v>
+      </c>
+      <c r="I8">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="J8">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.035039</v>
+      </c>
+      <c r="N8">
+        <v>0.105117</v>
+      </c>
+      <c r="O8">
+        <v>0.002054591157674269</v>
+      </c>
+      <c r="P8">
+        <v>0.002895935345626882</v>
+      </c>
+      <c r="Q8">
+        <v>0.1062452324406667</v>
+      </c>
+      <c r="R8">
+        <v>0.9562070919660001</v>
+      </c>
+      <c r="S8">
+        <v>0.00109465779410195</v>
+      </c>
+      <c r="T8">
+        <v>0.001542914358151038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.032199333333333</v>
+      </c>
+      <c r="H9">
+        <v>9.096598</v>
+      </c>
+      <c r="I9">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="J9">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.050715</v>
+      </c>
+      <c r="N9">
+        <v>0.152145</v>
+      </c>
+      <c r="O9">
+        <v>0.002973788936940283</v>
+      </c>
+      <c r="P9">
+        <v>0.004191539742956915</v>
+      </c>
+      <c r="Q9">
+        <v>0.15377798919</v>
+      </c>
+      <c r="R9">
+        <v>1.38400190271</v>
+      </c>
+      <c r="S9">
+        <v>0.001584393676414293</v>
+      </c>
+      <c r="T9">
+        <v>0.00223319448824538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.032199333333333</v>
+      </c>
+      <c r="H10">
+        <v>9.096598</v>
+      </c>
+      <c r="I10">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="J10">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.104360666666667</v>
+      </c>
+      <c r="N10">
+        <v>6.313082</v>
+      </c>
+      <c r="O10">
+        <v>0.1233939558289581</v>
+      </c>
+      <c r="P10">
+        <v>0.1739231266459359</v>
+      </c>
+      <c r="Q10">
+        <v>6.380841010559555</v>
+      </c>
+      <c r="R10">
+        <v>57.427569095036</v>
+      </c>
+      <c r="S10">
+        <v>0.06574259554691181</v>
+      </c>
+      <c r="T10">
+        <v>0.09266383993059987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.032199333333333</v>
+      </c>
+      <c r="H11">
+        <v>9.096598</v>
+      </c>
+      <c r="I11">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="J11">
+        <v>0.5327861896091618</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.7221375</v>
+      </c>
+      <c r="N11">
+        <v>29.444275</v>
+      </c>
+      <c r="O11">
+        <v>0.8632658902812514</v>
+      </c>
+      <c r="P11">
+        <v>0.811179130862353</v>
+      </c>
+      <c r="Q11">
+        <v>44.64045551274167</v>
+      </c>
+      <c r="R11">
+        <v>267.84273307645</v>
+      </c>
+      <c r="S11">
+        <v>0.4599361443025087</v>
+      </c>
+      <c r="T11">
+        <v>0.4321850382226247</v>
       </c>
     </row>
   </sheetData>
